--- a/biology/Médecine/Geneviève_Hidden/Geneviève_Hidden.xlsx
+++ b/biology/Médecine/Geneviève_Hidden/Geneviève_Hidden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Hidden</t>
+          <t>Geneviève_Hidden</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geneviève Hidden, née le 30 août 1926 à Nantes et morte le 27 juin 2016 à Neuilly-sur-Seine[1], est une chirurgienne française spécialisée en lymphologie. Elle est l'une des premières à démontrer la sécurité de la transplantation de ganglions lymphatiques. Elle est membre fondatrice de la Société européenne de lymphologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geneviève Hidden, née le 30 août 1926 à Nantes et morte le 27 juin 2016 à Neuilly-sur-Seine, est une chirurgienne française spécialisée en lymphologie. Elle est l'une des premières à démontrer la sécurité de la transplantation de ganglions lymphatiques. Elle est membre fondatrice de la Société européenne de lymphologie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Hidden</t>
+          <t>Geneviève_Hidden</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hidden s'intéresse à l'anatomie et à la recherche sur les cadavres[2]. Elle obtient son diplôme de médecine en 1958 [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hidden s'intéresse à l'anatomie et à la recherche sur les cadavres. Elle obtient son diplôme de médecine en 1958 .
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Hidden</t>
+          <t>Geneviève_Hidden</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hidden se spécialise en chirurgie[2] et est nommée chef de la chirurgie clinique en 1959[2]. En 1969, elle devient professeur d'anatomie et enseigne pendant trente ans. Elle est finalement nommée chef de service de chirurgie générale au Centre hospitalier intercommunal de Poissy-Saint-Germain-en-Laye où elle se concentre sur l'oncologie et le système lymphatique[3],[4],[5]. Elle est la première à démontrer que la greffe de ganglions lymphatiques pouvait être une procédure sûre[2]. 
-En 1979, Hidden s'associe à d'autres chercheurs en lymphologie pour créer la Société européenne de lymphologie[6]. Elle en est présidente en 1983 et aide à organiser plusieurs conférences scientifiques critiques[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hidden se spécialise en chirurgie et est nommée chef de la chirurgie clinique en 1959. En 1969, elle devient professeur d'anatomie et enseigne pendant trente ans. Elle est finalement nommée chef de service de chirurgie générale au Centre hospitalier intercommunal de Poissy-Saint-Germain-en-Laye où elle se concentre sur l'oncologie et le système lymphatique. Elle est la première à démontrer que la greffe de ganglions lymphatiques pouvait être une procédure sûre. 
+En 1979, Hidden s'associe à d'autres chercheurs en lymphologie pour créer la Société européenne de lymphologie. Elle en est présidente en 1983 et aide à organiser plusieurs conférences scientifiques critiques. 
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Hidden</t>
+          <t>Geneviève_Hidden</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Corinne Becker, Jalal Assouad, Marc Riquet et Geneviève Hidden, « Postmastectomy lymphedema: long-term results following microsurgical lymph node transplantation », Annals of Surgery, Lippincott Williams &amp; Wilkins (d), vol. 243, no 3,‎ 1er mars 2006, p. 313-315 (ISSN 0003-4932 et 1528-1140, PMID 16495693, PMCID 1448940, DOI 10.1097/01.SLA.0000201258.10304.16)
 (en) Marc Riquet, Françoise Le Pimpec Barthes, Redha Souilamas et Geneviève Hidden, « Thoracic duct tributaries from intrathoracic organs », The Annals of Thoracic Surgery, Elsevier, vol. 73, no 3,‎ 1er mars 2002, p. 892-8; discussion 898-9 (ISSN 0003-4975 et 1552-6259, OCLC 1481414, PMID 11899197, DOI 10.1016/S0003-4975(01)03361-6)
